--- a/DATA_goal/Junction_Flooding_400.xlsx
+++ b/DATA_goal/Junction_Flooding_400.xlsx
@@ -446,10 +446,10 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -461,10 +461,10 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="6" customWidth="1" min="26" max="26"/>
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44781.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.37</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>8.41</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.64</v>
+        <v>16.42</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.74</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.6</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.58</v>
       </c>
       <c r="I3" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.96</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.24</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.41</v>
+        <v>44.14</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.52</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.79</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.55</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.23</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.4</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.33</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K5" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="L5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="Q5" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="X5" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_400.xlsx
+++ b/DATA_goal/Junction_Flooding_400.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.54861111111</v>
+        <v>45081.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.2</v>
+        <v>23.541</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.61</v>
+        <v>16.304</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.19</v>
+        <v>4.244</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>49.627</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.37</v>
+        <v>41.058</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.79</v>
+        <v>18.526</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.8</v>
+        <v>61.718</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>28.505</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.43</v>
+        <v>12.158</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.63</v>
+        <v>18.744</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.25</v>
+        <v>19.59</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.31</v>
+        <v>20.45</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.79</v>
+        <v>5.915</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.02</v>
+        <v>18.422</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.74</v>
+        <v>25.954</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.14</v>
+        <v>15.331</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.49</v>
+        <v>3.814</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.93</v>
+        <v>2.604</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>273.066</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.42</v>
+        <v>51.313</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.55</v>
+        <v>17.004</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.17</v>
+        <v>34.141</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.28</v>
+        <v>17.76</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.89</v>
+        <v>2.295</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.74</v>
+        <v>30.618</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.36</v>
+        <v>15.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.88</v>
+        <v>13.452</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>15.735</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>20.304</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.52</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>54.593</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.63</v>
+        <v>9.503</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.39</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.55555555555</v>
+        <v>45081.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.6</v>
+        <v>14.413</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.01</v>
+        <v>10.15</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.49</v>
+        <v>1.749</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.9</v>
+        <v>30.73</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.36</v>
+        <v>25.451</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.51</v>
+        <v>11.343</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.58</v>
+        <v>45.921</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.26</v>
+        <v>17.452</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.94</v>
+        <v>7.532</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.87</v>
+        <v>11.443</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.31</v>
+        <v>12.294</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.83</v>
+        <v>12.831</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.26</v>
+        <v>3.624</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.26</v>
+        <v>11.279</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.82</v>
+        <v>15.92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.07</v>
+        <v>9.628</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.616</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.43</v>
+        <v>1.011</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.05</v>
+        <v>164.365</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.5</v>
+        <v>31.621</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.08</v>
+        <v>10.411</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.93</v>
+        <v>20.993</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.51</v>
+        <v>11.199</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.33</v>
+        <v>1.377</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.96</v>
+        <v>21.776</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.54</v>
+        <v>9.196</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.02</v>
+        <v>8.321999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.45</v>
+        <v>9.739000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.13</v>
+        <v>12.819</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.71</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>41.526</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.46</v>
+        <v>5.787</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.3</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.5625</v>
+        <v>45081.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.13</v>
+        <v>13.452</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.12</v>
+        <v>9.657999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.39</v>
+        <v>1.224</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>28.857</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.2</v>
+        <v>23.897</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.85</v>
+        <v>10.587</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>12.24</v>
+        <v>42.061</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.07</v>
+        <v>16.288</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.61</v>
+        <v>7.109</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.13</v>
+        <v>10.721</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.65</v>
+        <v>11.608</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.13</v>
+        <v>12.118</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.46</v>
+        <v>3.382</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.38</v>
+        <v>10.527</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.47</v>
+        <v>14.894</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.98</v>
+        <v>8.978999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.063</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.726</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>44.14</v>
+        <v>152.909</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.41</v>
+        <v>29.462</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.12</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.98</v>
+        <v>19.636</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.52</v>
+        <v>10.516</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.46</v>
+        <v>1.292</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.79</v>
+        <v>20.021</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.55</v>
+        <v>8.583</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.73</v>
+        <v>7.718</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.23</v>
+        <v>9.045999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.27</v>
+        <v>12.138</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.4</v>
+        <v>37.932</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.98</v>
+        <v>5.419</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.7</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.56944444445</v>
+        <v>45081.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.33</v>
+        <v>7.21</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.25</v>
+        <v>5.08</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.8</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.92</v>
+        <v>15.37</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.01</v>
+        <v>12.74</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>5.67</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.33</v>
+        <v>24.92</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.45</v>
+        <v>8.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.62</v>
+        <v>3.78</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.06</v>
+        <v>5.68</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.34</v>
+        <v>6.22</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.05</v>
+        <v>6.43</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.38</v>
+        <v>5.64</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.42</v>
+        <v>7.96</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.89</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.76</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.44</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>78.53</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.38</v>
+        <v>15.89</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.35</v>
+        <v>5.21</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.82</v>
+        <v>10.52</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.64</v>
+        <v>5.68</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.66</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.64</v>
+        <v>11.58</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.15</v>
+        <v>4.6</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.53</v>
+        <v>4.18</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.61</v>
+        <v>4.89</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.49</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.53</v>
+        <v>22.6</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.35</v>
+        <v>2.87</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.31</v>
+        <v>6.51</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_400.xlsx
+++ b/DATA_goal/Junction_Flooding_400.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45081.50694444445</v>
+        <v>44781.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.541</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.304</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.244</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>49.627</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>41.058</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.526</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>61.718</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>28.505</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.158</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.744</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.59</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.45</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.915</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.422</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.954</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.331</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.814</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.604</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>273.066</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>51.313</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.004</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>34.141</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.76</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.295</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>30.618</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.02</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.452</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.735</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>20.304</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>54.593</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.503</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>21.259</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45081.51388888889</v>
+        <v>44781.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.413</v>
+        <v>2.603</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.15</v>
+        <v>2.008</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.749</v>
+        <v>0.486</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>30.73</v>
+        <v>5.9</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.451</v>
+        <v>4.357</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.343</v>
+        <v>1.509</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>45.921</v>
+        <v>9.581</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>17.452</v>
+        <v>3.261</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.532</v>
+        <v>1.945</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.443</v>
+        <v>1.872</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.294</v>
+        <v>2.312</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.831</v>
+        <v>2.833</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.624</v>
+        <v>1.258</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.279</v>
+        <v>2.256</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.92</v>
+        <v>2.816</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.628</v>
+        <v>2.072</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.616</v>
+        <v>0.17</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.011</v>
+        <v>0.433</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>164.365</v>
+        <v>27.045</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>31.621</v>
+        <v>6.498</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.411</v>
+        <v>2.082</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.993</v>
+        <v>3.932</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.199</v>
+        <v>2.508</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.377</v>
+        <v>0.326</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>21.776</v>
+        <v>5.964</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.196</v>
+        <v>1.54</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.321999999999999</v>
+        <v>2.021</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.739000000000001</v>
+        <v>2.451</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.819</v>
+        <v>3.128</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>41.526</v>
+        <v>9.454000000000001</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.787</v>
+        <v>1.463</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.016</v>
+        <v>2.304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45081.52083333334</v>
+        <v>44781.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.452</v>
+        <v>4.127</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.657999999999999</v>
+        <v>3.116</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.224</v>
+        <v>0.39</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>28.857</v>
+        <v>9.214</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>23.897</v>
+        <v>7.195</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.587</v>
+        <v>2.855</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>42.061</v>
+        <v>12.238</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.288</v>
+        <v>5.065</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.109</v>
+        <v>2.613</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.721</v>
+        <v>3.128</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.608</v>
+        <v>3.654</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.118</v>
+        <v>4.131</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.382</v>
+        <v>1.46</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.527</v>
+        <v>3.384</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.894</v>
+        <v>4.469</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.978999999999999</v>
+        <v>2.98</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.063</v>
+        <v>0.111</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.726</v>
+        <v>0.357</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>152.909</v>
+        <v>44.144</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>29.462</v>
+        <v>9.41</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.717000000000001</v>
+        <v>3.123</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>19.636</v>
+        <v>5.975</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.516</v>
+        <v>3.516</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.292</v>
+        <v>0.458</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.021</v>
+        <v>6.79</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.583</v>
+        <v>2.553</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.718</v>
+        <v>2.728</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.045999999999999</v>
+        <v>3.234</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.138</v>
+        <v>4.268</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>37.932</v>
+        <v>11.396</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.419</v>
+        <v>1.977</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.148</v>
+        <v>3.697</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45081.52777777778</v>
+        <v>44781.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.21</v>
+        <v>0.329</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.08</v>
+        <v>0.249</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.195</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.37</v>
+        <v>0.924</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.74</v>
+        <v>0.015</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.67</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>24.92</v>
+        <v>4.333</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.73</v>
+        <v>0.446</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.78</v>
+        <v>0.622</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.68</v>
+        <v>0.063</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.22</v>
+        <v>0.337</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.43</v>
+        <v>0.055</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.64</v>
+        <v>0.376</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.96</v>
+        <v>0.42</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.89</v>
+        <v>0.465</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.049</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.185</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.53</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.89</v>
+        <v>1.382</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.21</v>
+        <v>0.347</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.52</v>
+        <v>0.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.68</v>
+        <v>0.641</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.057</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.58</v>
+        <v>2.635</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.6</v>
+        <v>0.15</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.18</v>
+        <v>0.534</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.89</v>
+        <v>0.614</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.49</v>
+        <v>0.655</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>4.526</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>0.293</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AC6" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>6.51</v>
+      <c r="AD6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_400.xlsx
+++ b/DATA_goal/Junction_Flooding_400.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.54861111111</v>
+        <v>45081.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.205</v>
+        <v>23.541</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.605</v>
+        <v>16.304</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.192</v>
+        <v>4.244</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>49.627</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.374</v>
+        <v>41.058</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.794</v>
+        <v>18.526</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.798</v>
+        <v>61.718</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.957000000000001</v>
+        <v>28.505</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.429</v>
+        <v>12.158</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.631</v>
+        <v>18.744</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.249</v>
+        <v>19.59</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.306</v>
+        <v>20.45</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.788</v>
+        <v>5.915</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.015</v>
+        <v>18.422</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.738</v>
+        <v>25.954</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.138</v>
+        <v>15.331</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.492</v>
+        <v>3.814</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.931</v>
+        <v>2.604</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>273.066</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.424</v>
+        <v>51.313</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.552</v>
+        <v>17.004</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.174</v>
+        <v>34.141</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.283</v>
+        <v>17.76</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.894</v>
+        <v>2.295</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.741</v>
+        <v>30.618</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.361</v>
+        <v>15.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.885</v>
+        <v>13.452</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>15.735</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.134</v>
+        <v>20.304</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.522</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>54.593</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.625</v>
+        <v>9.503</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.387</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.55555555555</v>
+        <v>45081.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.603</v>
+        <v>14.413</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.008</v>
+        <v>10.15</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.486</v>
+        <v>1.749</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.9</v>
+        <v>30.73</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.357</v>
+        <v>25.451</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.509</v>
+        <v>11.343</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.581</v>
+        <v>45.921</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.261</v>
+        <v>17.452</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.945</v>
+        <v>7.532</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.872</v>
+        <v>11.443</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.312</v>
+        <v>12.294</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.833</v>
+        <v>12.831</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.258</v>
+        <v>3.624</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.256</v>
+        <v>11.279</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.816</v>
+        <v>15.92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.072</v>
+        <v>9.628</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.616</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.433</v>
+        <v>1.011</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.045</v>
+        <v>164.365</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.498</v>
+        <v>31.621</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.082</v>
+        <v>10.411</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.932</v>
+        <v>20.993</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.508</v>
+        <v>11.199</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.326</v>
+        <v>1.377</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.964</v>
+        <v>21.776</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.54</v>
+        <v>9.196</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.021</v>
+        <v>8.321999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.451</v>
+        <v>9.739000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.128</v>
+        <v>12.819</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.707</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.454000000000001</v>
+        <v>41.526</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.463</v>
+        <v>5.787</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.304</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.5625</v>
+        <v>45081.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.127</v>
+        <v>13.452</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.116</v>
+        <v>9.657999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.39</v>
+        <v>1.224</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.214</v>
+        <v>28.857</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.195</v>
+        <v>23.897</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.855</v>
+        <v>10.587</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>12.238</v>
+        <v>42.061</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.065</v>
+        <v>16.288</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.613</v>
+        <v>7.109</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.128</v>
+        <v>10.721</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.654</v>
+        <v>11.608</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.131</v>
+        <v>12.118</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.46</v>
+        <v>3.382</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.384</v>
+        <v>10.527</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.469</v>
+        <v>14.894</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.98</v>
+        <v>8.978999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.111</v>
+        <v>1.063</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.357</v>
+        <v>0.726</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>44.144</v>
+        <v>152.909</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.41</v>
+        <v>29.462</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.123</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.975</v>
+        <v>19.636</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.516</v>
+        <v>10.516</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.458</v>
+        <v>1.292</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.79</v>
+        <v>20.021</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.553</v>
+        <v>8.583</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.728</v>
+        <v>7.718</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.234</v>
+        <v>9.045999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.268</v>
+        <v>12.138</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.461</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.396</v>
+        <v>37.932</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.977</v>
+        <v>5.419</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.697</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.56944444445</v>
+        <v>45081.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.329</v>
+        <v>7.21</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.249</v>
+        <v>5.08</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.195</v>
+        <v>0.8</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.924</v>
+        <v>15.37</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.015</v>
+        <v>12.74</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>5.67</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.333</v>
+        <v>24.92</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.446</v>
+        <v>8.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.622</v>
+        <v>3.78</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.063</v>
+        <v>5.68</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.337</v>
+        <v>6.22</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.055</v>
+        <v>6.43</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.376</v>
+        <v>5.64</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.42</v>
+        <v>7.96</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.465</v>
+        <v>4.89</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.049</v>
+        <v>0.76</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.185</v>
+        <v>0.44</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>78.53</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.382</v>
+        <v>15.89</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.347</v>
+        <v>5.21</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.82</v>
+        <v>10.52</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.641</v>
+        <v>5.68</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.057</v>
+        <v>0.66</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.635</v>
+        <v>11.58</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.15</v>
+        <v>4.6</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.534</v>
+        <v>4.18</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.614</v>
+        <v>4.89</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.655</v>
+        <v>6.49</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.526</v>
+        <v>22.6</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.349</v>
+        <v>2.87</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.293</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.31</v>
+        <v>6.51</v>
       </c>
     </row>
   </sheetData>
